--- a/documentations/BAS BCI Batch3Group7_Project MVP Attributes.xlsx
+++ b/documentations/BAS BCI Batch3Group7_Project MVP Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BCCode\retoken-app\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B043B5A-F75E-4096-B03E-25FF285A3603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5EE3BD-2323-494C-8FE2-DD08A61725AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,14 +344,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,7 +635,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="18"/>
@@ -651,13 +651,13 @@
     <col min="9" max="10" width="11.44140625" style="1"/>
     <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
     <col min="12" max="13" width="11.44140625" style="1"/>
-    <col min="14" max="14" width="40" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29" style="1" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.7" customHeight="1">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
@@ -812,7 +812,7 @@
       <c r="L10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="18" t="s">
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="28.8">
       <c r="A13" s="8">
         <f>A12+1</f>
         <v>10</v>
